--- a/biology/Zoologie/Euploea_boisduvali/Euploea_boisduvali.xlsx
+++ b/biology/Zoologie/Euploea_boisduvali/Euploea_boisduvali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea boisduvali est un insecte lépidoptère  de la famille des  Nymphalidae, de la sous-famille des Danainae et du genre  Euploea.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euploea boisduvali a été nommé par Lucas en 1852[1].
-Sous-espèces
-Euploea boisduvali boisduvali aux iles Fidji.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea boisduvali a été nommé par Lucas en 1852.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euploea_boisduvali</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_boisduvali</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euploea boisduvali boisduvali aux iles Fidji.
 Euploea boisduvali albomarginata (Carpenter, 1942)
 Euploea boisduvali addenda (Howarth, 1962)
 Euploea boisduvali bakeri (Poulton, 1926)
@@ -523,35 +572,9 @@
 Euploea boisduvali fraudulenta (Butler, 1882)
 Euploea boisduvali pyrgion (Godman &amp; Salvin, 1888)
 Euploea boisduvali rileyi (Poulton, 1924) en  Nouvelle-Calédonie
-Euploea boisduvali torvina (Butler, 1875)[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euploea_boisduvali</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_boisduvali</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Nom vernaculaire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+Euploea boisduvali torvina (Butler, 1875).</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,14 +597,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chenille</t>
-        </is>
-      </c>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,8 +630,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de sa chenille est Hoya australis[1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Hoya australis.
 </t>
         </is>
       </c>
@@ -639,12 +665,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Euploea boisduvali est présent en Océanie des îles Salomon aux iles Fidji, aux Nouvelles-Hébrides et à la Nouvelle-Calédonie[1],[2].
-Biotope
-Il réside en forêt[2].
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea boisduvali est présent en Océanie des îles Salomon aux iles Fidji, aux Nouvelles-Hébrides et à la Nouvelle-Calédonie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euploea_boisduvali</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_boisduvali</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt.
+</t>
         </is>
       </c>
     </row>
